--- a/NC State Senate/SD1/Results.xlsx
+++ b/NC State Senate/SD1/Results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA5E938-CDD3-48D6-9031-28DD15F8D6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BA124-AB3F-4C2D-93F6-3A1F8CDE1D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 Results" sheetId="3" r:id="rId1"/>
     <sheet name="2016 Results" sheetId="4" r:id="rId2"/>
     <sheet name="2012 Results" sheetId="5" r:id="rId3"/>
+    <sheet name="2018 House Results" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>County</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>MARGIN</t>
+  </si>
+  <si>
+    <t>% POP</t>
   </si>
 </sst>
 </file>
@@ -417,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652E67A-1191-48B5-8ABD-1A513E97425E}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +451,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -474,8 +481,12 @@
         <f>(B2-C2)/D2</f>
         <v>-0.40998261733300223</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <f>D2/$D$13</f>
+        <v>5.3813876416506305E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -501,8 +512,12 @@
         <f t="shared" ref="G3:G13" si="3">(B3-C3)/D3</f>
         <v>-0.15056098443720595</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="4">D3/$D$13</f>
+        <v>7.384541372674791E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -528,8 +543,12 @@
         <f t="shared" si="3"/>
         <v>-0.40002035209117737</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13132082531537309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -555,8 +574,12 @@
         <f t="shared" si="3"/>
         <v>-6.773683570473063E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21977228992944195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -582,8 +605,12 @@
         <f t="shared" si="3"/>
         <v>-3.3349213911386372E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6098995082317728E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -609,8 +636,12 @@
         <f t="shared" si="3"/>
         <v>0.39319762947693893</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10372567885396622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -636,8 +667,12 @@
         <f t="shared" si="3"/>
         <v>-7.7439339184305631E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5884648278811203E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -663,8 +698,12 @@
         <f t="shared" si="3"/>
         <v>5.3096693423668899E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.181459803292709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -690,8 +729,12 @@
         <f t="shared" si="3"/>
         <v>-0.30810020113366249</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3083707504810774E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -717,8 +760,12 @@
         <f t="shared" si="3"/>
         <v>-6.8859984697781174E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7465790036348086E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -744,8 +791,12 @@
         <f t="shared" si="3"/>
         <v>0.16954143878838873</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3528971562967718E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -754,11 +805,11 @@
         <v>35017</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="4">SUM(C2:C12)</f>
+        <f t="shared" ref="C13:D13" si="5">SUM(C2:C12)</f>
         <v>39815</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74832</v>
       </c>
       <c r="E13" s="1">
@@ -772,6 +823,10 @@
       <c r="G13" s="1">
         <f t="shared" si="3"/>
         <v>-6.4116955313234983E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -781,15 +836,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C24AFD4-A2B5-4A92-98AC-F6035B4FF082}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,8 +866,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -837,8 +895,12 @@
         <f>(B2-C2)/D2</f>
         <v>-0.45396444977032158</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <f>D2/$D$13</f>
+        <v>5.3052056071795632E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +925,12 @@
         <f t="shared" ref="G3:G13" si="2">(B3-C3)/D3</f>
         <v>-0.1413945766463752</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="3">D3/$D$13</f>
+        <v>7.6584833490501061E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -889,8 +955,12 @@
         <f t="shared" si="2"/>
         <v>-0.49333017602020679</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13423537015649667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -915,8 +985,12 @@
         <f t="shared" si="2"/>
         <v>-0.21600530449862287</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20773689062185444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -941,8 +1015,12 @@
         <f t="shared" si="2"/>
         <v>-9.0081723625557206E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7046588753854141E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -967,8 +1045,12 @@
         <f t="shared" si="2"/>
         <v>0.37439827094999512</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10785238241557973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1075,12 @@
         <f t="shared" si="2"/>
         <v>-0.14019097222222221</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4412210343402664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1019,8 +1105,12 @@
         <f t="shared" si="2"/>
         <v>2.5012937726410212E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18426768666758495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1045,8 +1135,12 @@
         <f t="shared" si="2"/>
         <v>-0.27698270721526536</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1075133239385885E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1071,8 +1165,12 @@
         <f t="shared" si="2"/>
         <v>-0.14663599769982749</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8425709109017897E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1097,8 +1195,12 @@
         <f t="shared" si="2"/>
         <v>0.15330953926022065</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5311139130526913E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1107,11 +1209,11 @@
         <v>39819</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="3">SUM(C2:C12)</f>
+        <f t="shared" ref="C13:D13" si="4">SUM(C2:C12)</f>
         <v>51329</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94379</v>
       </c>
       <c r="E13" s="1">
@@ -1125,6 +1227,10 @@
       <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>-0.12195509594295341</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1134,15 +1240,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406AF035-94A1-4CE7-B5CA-195C218C0426}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1270,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1299,12 @@
         <f>(B2-C2)/D2</f>
         <v>-0.34034863945578231</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <f>D2/$D$13</f>
+        <v>5.0458567980691878E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1216,8 +1329,12 @@
         <f t="shared" ref="G3:G13" si="2">(B3-C3)/D3</f>
         <v>-4.4636908727514989E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="3">D3/$D$13</f>
+        <v>8.0504156610351305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1242,8 +1359,12 @@
         <f t="shared" si="2"/>
         <v>-0.34801840056617128</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12125502815768302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1268,8 +1389,12 @@
         <f t="shared" si="2"/>
         <v>-0.15884054745743853</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19280235988200589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1294,8 +1419,12 @@
         <f t="shared" si="2"/>
         <v>4.1141586360266866E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7881469562885493E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1320,8 +1449,12 @@
         <f t="shared" si="2"/>
         <v>0.44293826708188311</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11711450791096809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1346,8 +1479,12 @@
         <f t="shared" si="2"/>
         <v>-1.258917331095258E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5561812818449988E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1372,8 +1509,12 @@
         <f t="shared" si="2"/>
         <v>0.14629701220522451</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19422901582193616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1539,12 @@
         <f t="shared" si="2"/>
         <v>-0.15980156343956706</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1354250469294722E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1424,8 +1569,12 @@
         <f t="shared" si="2"/>
         <v>-5.2159282108805383E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9125770984178062E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1450,8 +1599,12 @@
         <f t="shared" si="2"/>
         <v>0.18633635943991383</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9713059801555372E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1460,11 +1613,11 @@
         <v>45522</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="3">SUM(C2:C12)</f>
+        <f t="shared" ref="C13:D13" si="4">SUM(C2:C12)</f>
         <v>46515</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93225</v>
       </c>
       <c r="E13" s="1">
@@ -1478,6 +1631,419 @@
       <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>-1.0651649235720033E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814E5C04-9EE4-4108-8EE1-678E795D99FB}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1153</v>
+      </c>
+      <c r="C2">
+        <v>2797</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D3" si="0">B2+C2</f>
+        <v>3950</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2/D2</f>
+        <v>0.29189873417721518</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2/D2</f>
+        <v>0.70810126582278476</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(B2-C2)/D2</f>
+        <v>-0.41620253164556964</v>
+      </c>
+      <c r="H2" s="1">
+        <f>D2/$D$13</f>
+        <v>5.293416062502513E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2405</v>
+      </c>
+      <c r="C3">
+        <v>3105</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>5510</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E13" si="1">B3/D3</f>
+        <v>0.43647912885662432</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F13" si="2">C3/D3</f>
+        <v>0.56352087114337568</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="3">(B3-C3)/D3</f>
+        <v>-0.12704174228675136</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="4">D3/$D$13</f>
+        <v>7.3839803808579352E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3125</v>
+      </c>
+      <c r="C4">
+        <v>6711</v>
+      </c>
+      <c r="D4">
+        <v>9836</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31771045140300935</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68228954859699065</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36457909719398129</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13181276048297397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8845</v>
+      </c>
+      <c r="C5">
+        <v>7716</v>
+      </c>
+      <c r="D5">
+        <v>16561</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53408610591147876</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46591389408852124</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8172211822957546E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22193484407874459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2172</v>
+      </c>
+      <c r="C6">
+        <v>1987</v>
+      </c>
+      <c r="D6">
+        <v>4159</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52224092329886995</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4777590767011301</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4481846597739842E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5734980769488483E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5838</v>
+      </c>
+      <c r="C7">
+        <v>1991</v>
+      </c>
+      <c r="D7">
+        <v>7829</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74568910461106142</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25431089538893858</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49137820922212289</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10491684646413207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1013</v>
+      </c>
+      <c r="C8">
+        <v>924</v>
+      </c>
+      <c r="D8">
+        <v>1937</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52297367062467737</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47702632937532269</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5947341249354672E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5957840286246498E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>7196</v>
+      </c>
+      <c r="C9">
+        <v>6194</v>
+      </c>
+      <c r="D9">
+        <v>13390</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53741598207617625</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46258401792382375</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4831964152352506E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17944010399217378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1857</v>
+      </c>
+      <c r="C10">
+        <v>3595</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D12" si="5">B10+C10</f>
+        <v>5452</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34060895084372705</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65939104915627289</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.31878209831254584</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3062542715857465E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>586</v>
+      </c>
+      <c r="C11">
+        <v>687</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>1273</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46032992930086408</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53967007069913586</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.9340141398271793E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7059540879913161E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2667</v>
+      </c>
+      <c r="C12">
+        <v>2057</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>4724</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56456392887383577</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43543607112616428</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12912785774767147</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3306575896865488E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>36857</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="6">SUM(C2:C12)</f>
+        <v>37764</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>74621</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49392262231811418</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50607737768188576</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2154755363771592E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/NC State Senate/SD1/Results.xlsx
+++ b/NC State Senate/SD1/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BA124-AB3F-4C2D-93F6-3A1F8CDE1D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97D385-73C7-4C4E-853B-CD46C47AB84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 Results" sheetId="3" r:id="rId1"/>
@@ -423,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652E67A-1191-48B5-8ABD-1A513E97425E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406AF035-94A1-4CE7-B5CA-195C218C0426}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
